--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_16.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_16.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_0</t>
+          <t>model_1_16_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9996848200583763</v>
+        <v>0.9504836329644076</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8262711349761787</v>
+        <v>0.7439011173647179</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8182432224978362</v>
+        <v>0.7581969487698944</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997048384672444</v>
+        <v>0.9162132365618512</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001311944921314574</v>
+        <v>0.1735801486188271</v>
       </c>
       <c r="G2" t="n">
-        <v>1.161725720362162</v>
+        <v>1.712534407409056</v>
       </c>
       <c r="H2" t="n">
-        <v>0.650133454261755</v>
+        <v>0.8649154937036072</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001031512266365582</v>
+        <v>0.1403544450886939</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09801887440515561</v>
+        <v>1.376100271079002</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03622078024165926</v>
+        <v>0.4166295100191861</v>
       </c>
       <c r="L2" t="n">
-        <v>1.020171516263915</v>
+        <v>0.9325734576536615</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03679122132296876</v>
+        <v>0.423191008325273</v>
       </c>
       <c r="N2" t="n">
-        <v>143.2724891400936</v>
+        <v>37.50223166913706</v>
       </c>
       <c r="O2" t="n">
-        <v>284.60766168331</v>
+        <v>74.46681525736288</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_1</t>
+          <t>model_1_16_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9996882212401659</v>
+        <v>0.9504760069752137</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8261746917598676</v>
+        <v>0.7437705904076708</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8182419211113587</v>
+        <v>0.7580965326967117</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997027302142512</v>
+        <v>0.9164885803944834</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001297787411314907</v>
+        <v>0.1736068816046436</v>
       </c>
       <c r="G3" t="n">
-        <v>1.162370636593713</v>
+        <v>1.713407241771851</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6501381092457261</v>
+        <v>0.8652746761749233</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001038880058512437</v>
+        <v>0.1398932059949291</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09830333937434788</v>
+        <v>1.377113591895733</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03602481660348748</v>
+        <v>0.4166615912279936</v>
       </c>
       <c r="L3" t="n">
-        <v>1.019953840629384</v>
+        <v>0.9325630733279506</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03659217145338755</v>
+        <v>0.4232235947810498</v>
       </c>
       <c r="N3" t="n">
-        <v>143.2941889116872</v>
+        <v>37.50192367392362</v>
       </c>
       <c r="O3" t="n">
-        <v>284.6293614549036</v>
+        <v>74.46650726214943</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_2</t>
+          <t>model_1_16_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997292981540307</v>
+        <v>0.9504684819031481</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8259434795117704</v>
+        <v>0.7436430523996266</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8170185440863253</v>
+        <v>0.7579885973642868</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9995219528152753</v>
+        <v>0.9167656558192362</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001126803660729029</v>
+        <v>0.1736332608243988</v>
       </c>
       <c r="G4" t="n">
-        <v>1.163916753961374</v>
+        <v>1.714260089018901</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6545140579287949</v>
+        <v>0.865660754600557</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001670649729798596</v>
+        <v>0.1394290662442918</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1160178117700197</v>
+        <v>1.378117520056295</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03356789628095614</v>
+        <v>0.4166932454748922</v>
       </c>
       <c r="L4" t="n">
-        <v>1.017324918142037</v>
+        <v>0.9325528264213081</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03409655709179561</v>
+        <v>0.4232557475506944</v>
       </c>
       <c r="N4" t="n">
-        <v>143.5767405463681</v>
+        <v>37.5016198009944</v>
       </c>
       <c r="O4" t="n">
-        <v>284.9119130895845</v>
+        <v>74.46620338922021</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_3</t>
+          <t>model_1_16_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9997353555839206</v>
+        <v>0.9504607056428697</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8258574008679898</v>
+        <v>0.7435174691649069</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8170965133588806</v>
+        <v>0.7578769655255237</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9995406185224963</v>
+        <v>0.9170443095134885</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001101589447098482</v>
+        <v>0.1736605205870922</v>
       </c>
       <c r="G5" t="n">
-        <v>1.16449236224869</v>
+        <v>1.71509986468773</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6542351663617831</v>
+        <v>0.8660600552150266</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001605417970838802</v>
+        <v>0.1389622826734291</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1125881696266592</v>
+        <v>1.379172797648994</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03319020107047382</v>
+        <v>0.4167259538198841</v>
       </c>
       <c r="L5" t="n">
-        <v>1.016937242629083</v>
+        <v>0.9325422374711416</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03371291355930489</v>
+        <v>0.4232889710194236</v>
       </c>
       <c r="N5" t="n">
-        <v>143.6220023804171</v>
+        <v>37.50130583323329</v>
       </c>
       <c r="O5" t="n">
-        <v>284.9571749236335</v>
+        <v>74.46588942145911</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_4</t>
+          <t>model_1_16_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9997391389010685</v>
+        <v>0.9504483608088173</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8258566080863657</v>
+        <v>0.7428396588996331</v>
       </c>
       <c r="D6" t="n">
-        <v>0.81706067680404</v>
+        <v>0.7560138285012276</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9995469032695976</v>
+        <v>0.9202335291931064</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001085841288467542</v>
+        <v>0.1737037955334942</v>
       </c>
       <c r="G6" t="n">
-        <v>1.164497663583061</v>
+        <v>1.719632385052644</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6543633516405249</v>
+        <v>0.8727243883200422</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001583454425435456</v>
+        <v>0.1336198975515935</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1112842398230008</v>
+        <v>1.394099294468006</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03295210597924724</v>
+        <v>0.4167778731332725</v>
       </c>
       <c r="L6" t="n">
-        <v>1.016695110331618</v>
+        <v>0.932525427484347</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03347106870839926</v>
+        <v>0.4233417080100976</v>
       </c>
       <c r="N6" t="n">
-        <v>143.6508004227325</v>
+        <v>37.50080750977727</v>
       </c>
       <c r="O6" t="n">
-        <v>284.9859729659489</v>
+        <v>74.4653910980031</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_5</t>
+          <t>model_1_16_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997289684812017</v>
+        <v>0.9504208012285851</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8256988766136032</v>
+        <v>0.7425652440724014</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8167475814688183</v>
+        <v>0.7557433874489284</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9993630857682282</v>
+        <v>0.9208156900435358</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001128175932680746</v>
+        <v>0.1738004059336302</v>
       </c>
       <c r="G7" t="n">
-        <v>1.165552414667711</v>
+        <v>1.721467398265907</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6554832755003024</v>
+        <v>0.8736917402830431</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002225848458509701</v>
+        <v>0.1326446974154206</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1255797508046411</v>
+        <v>1.396884527393978</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03358833030504413</v>
+        <v>0.4168937585688112</v>
       </c>
       <c r="L7" t="n">
-        <v>1.017346017203089</v>
+        <v>0.9324878995453073</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03411731293133646</v>
+        <v>0.423459418525403</v>
       </c>
       <c r="N7" t="n">
-        <v>143.574306338759</v>
+        <v>37.49969546103407</v>
       </c>
       <c r="O7" t="n">
-        <v>284.9094788819754</v>
+        <v>74.46427904925989</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_6</t>
+          <t>model_1_16_0</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9997098342702753</v>
+        <v>0.9499325486535852</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8255090677253416</v>
+        <v>0.7406714251906255</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8161341641483734</v>
+        <v>0.7478294512522942</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9991344357042787</v>
+        <v>0.9308987474112868</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001207822596485117</v>
+        <v>0.1755119805019154</v>
       </c>
       <c r="G8" t="n">
-        <v>1.166821667577506</v>
+        <v>1.734131373848576</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6576774336875542</v>
+        <v>0.9019994311820176</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003024920558004652</v>
+        <v>0.1157541783933694</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1370554111305115</v>
+        <v>1.477107109235642</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03475374219397268</v>
+        <v>0.4189415000950794</v>
       </c>
       <c r="L8" t="n">
-        <v>1.018570606702383</v>
+        <v>0.9318230449750948</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03530107889253115</v>
+        <v>0.4255394099337194</v>
       </c>
       <c r="N8" t="n">
-        <v>143.4378720949368</v>
+        <v>37.48009594687597</v>
       </c>
       <c r="O8" t="n">
-        <v>284.7730446381532</v>
+        <v>74.44467953510178</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_7</t>
+          <t>model_1_16_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9997005062672089</v>
+        <v>0.9499956178921487</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8252710549697805</v>
+        <v>0.7399092696465461</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8160027201362683</v>
+        <v>0.751619804982957</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9990206538901243</v>
+        <v>0.9274605045681558</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001246650658277446</v>
+        <v>0.1752908906187408</v>
       </c>
       <c r="G9" t="n">
-        <v>1.168413259969891</v>
+        <v>1.739227911481239</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6581476012972924</v>
+        <v>0.8884415556647737</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003422558203716561</v>
+        <v>0.1215137118390557</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1398512640661554</v>
+        <v>1.444403044986166</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03530794044230626</v>
+        <v>0.4186775496951571</v>
       </c>
       <c r="L9" t="n">
-        <v>1.019167598898633</v>
+        <v>0.9319089264914365</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03586400520928099</v>
+        <v>0.425271302578852</v>
       </c>
       <c r="N9" t="n">
-        <v>143.3745895945203</v>
+        <v>37.48261690586061</v>
       </c>
       <c r="O9" t="n">
-        <v>284.7097621377367</v>
+        <v>74.44720049408643</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_8</t>
+          <t>model_1_16_3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9997278241906568</v>
+        <v>0.9499877052859248</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8245297680976331</v>
+        <v>0.7397944996343064</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8159218207635496</v>
+        <v>0.7520111826405569</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9990660758433403</v>
+        <v>0.9271110725866996</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001132939072623278</v>
+        <v>0.1753186283435887</v>
       </c>
       <c r="G10" t="n">
-        <v>1.173370248697252</v>
+        <v>1.739995379081553</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6584369736626919</v>
+        <v>0.8870416204769194</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003263820371360299</v>
+        <v>0.1220990588537991</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1330141032175285</v>
+        <v>1.4414285386543</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03365916030775691</v>
+        <v>0.4187106737875076</v>
       </c>
       <c r="L10" t="n">
-        <v>1.017419251797968</v>
+        <v>0.9318981518787062</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03418925843578794</v>
+        <v>0.4253049483425451</v>
       </c>
       <c r="N10" t="n">
-        <v>143.565880147297</v>
+        <v>37.48230045438504</v>
       </c>
       <c r="O10" t="n">
-        <v>284.9010526905134</v>
+        <v>74.44688404261086</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_9</t>
+          <t>model_1_16_1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9997291271899548</v>
+        <v>0.9499592139365565</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8244522193828357</v>
+        <v>0.7397393002603568</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8158907843274169</v>
+        <v>0.7514194247691228</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9990676173166132</v>
+        <v>0.9277612434855504</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001127515303259441</v>
+        <v>0.1754185050702912</v>
       </c>
       <c r="G11" t="n">
-        <v>1.173888817310182</v>
+        <v>1.740364497549324</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6585479891951427</v>
+        <v>0.8891583040709459</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003258433325919634</v>
+        <v>0.121009932457499</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1328777894780143</v>
+        <v>1.447219874463066</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03357849465445765</v>
+        <v>0.418829923799973</v>
       </c>
       <c r="L11" t="n">
-        <v>1.017335859842895</v>
+        <v>0.9318593551476514</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03410732237908528</v>
+        <v>0.4254260764235005</v>
       </c>
       <c r="N11" t="n">
-        <v>143.5754778278878</v>
+        <v>37.48116140499577</v>
       </c>
       <c r="O11" t="n">
-        <v>284.9106503711042</v>
+        <v>74.4457449932216</v>
       </c>
     </row>
   </sheetData>
